--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\ManageProducts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A5E55-033C-45CC-B09D-4021E62E4A85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{00279D1E-0654-423C-8614-8556A69BE690}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Other</t>
   </si>
@@ -69,51 +69,18 @@
     <t>Category</t>
   </si>
   <si>
-    <t>NPSKU</t>
-  </si>
-  <si>
     <t>No Pallet Required</t>
   </si>
   <si>
     <t>Standard Pallet 1</t>
   </si>
   <si>
-    <t>PSKU</t>
-  </si>
-  <si>
     <t>Safe/Vault</t>
   </si>
   <si>
-    <t>211</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>prodhgMV</t>
-  </si>
-  <si>
-    <t>prodcicl</t>
-  </si>
-  <si>
-    <t>prodeFeF</t>
-  </si>
-  <si>
-    <t>Appliances</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
@@ -132,17 +99,75 @@
     <t>20</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>CartonWeight2</t>
+  </si>
+  <si>
+    <t>CartonWidth2</t>
+  </si>
+  <si>
+    <t>CartonLength2</t>
+  </si>
+  <si>
+    <t>Category2</t>
+  </si>
+  <si>
+    <t>CartonHeight2</t>
+  </si>
+  <si>
+    <t>NP-SC-SKU</t>
+  </si>
+  <si>
+    <t>NP-MC-SKU</t>
+  </si>
+  <si>
+    <t>P-SC-SKU</t>
+  </si>
+  <si>
+    <t>P-MC-SKU</t>
+  </si>
+  <si>
+    <t>CP-SC-SKU</t>
+  </si>
+  <si>
+    <t>CP-MC-SKU</t>
+  </si>
+  <si>
+    <t>Custom Pallet (enter dimensions)</t>
+  </si>
+  <si>
+    <t>prodcHkm</t>
+  </si>
+  <si>
+    <t>prodhUKS</t>
+  </si>
+  <si>
+    <t>prodCXSL</t>
+  </si>
+  <si>
+    <t>prodgHwx</t>
+  </si>
+  <si>
+    <t>prodmClj</t>
+  </si>
+  <si>
+    <t>prodoUjO</t>
+  </si>
+  <si>
+    <t>prodkTXy</t>
+  </si>
+  <si>
+    <t>prodUrEt</t>
+  </si>
+  <si>
+    <t>prodDcZL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +189,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,7 +229,97 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -208,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -351,72 +472,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,10 +635,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -600,21 +802,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -631,7 +833,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -683,39 +885,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.66796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="21" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -744,242 +951,332 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="R1" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7">
+        <v>50</v>
+      </c>
+      <c r="K3" s="7">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="L3" s="7">
+        <v>10</v>
+      </c>
+      <c r="M3" s="7">
+        <v>30</v>
+      </c>
+      <c r="N3" s="7">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
+      <c r="O3" s="7">
+        <v>40</v>
+      </c>
+      <c r="P3" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="B5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7">
+        <v>200</v>
+      </c>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7">
+        <v>30</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15</v>
+      </c>
+      <c r="O5" s="7">
+        <v>40</v>
+      </c>
+      <c r="P5" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16"/>
+    </row>
+    <row ht="15.75" r="7" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="B7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="21">
+        <v>48</v>
+      </c>
+      <c r="G7" s="21">
+        <v>40</v>
+      </c>
+      <c r="H7" s="21">
+        <v>40</v>
+      </c>
+      <c r="I7" s="20">
+        <v>200</v>
+      </c>
+      <c r="J7" s="20">
+        <v>100</v>
+      </c>
+      <c r="K7" s="20">
+        <v>20</v>
+      </c>
+      <c r="L7" s="20">
+        <v>10</v>
+      </c>
+      <c r="M7" s="20">
+        <v>30</v>
+      </c>
+      <c r="N7" s="20">
+        <v>15</v>
+      </c>
+      <c r="O7" s="20">
+        <v>40</v>
+      </c>
+      <c r="P7" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="R7" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>18</v>
-      </c>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\ManageProducts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{00279D1E-0654-423C-8614-8556A69BE690}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{61772B82-64F7-4617-9DE1-C92C29CAF183}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Other</t>
   </si>
@@ -135,31 +135,43 @@
     <t>Custom Pallet (enter dimensions)</t>
   </si>
   <si>
-    <t>prodcHkm</t>
-  </si>
-  <si>
-    <t>prodhUKS</t>
-  </si>
-  <si>
-    <t>prodCXSL</t>
-  </si>
-  <si>
-    <t>prodgHwx</t>
-  </si>
-  <si>
-    <t>prodmClj</t>
-  </si>
-  <si>
     <t>prodoUjO</t>
   </si>
   <si>
-    <t>prodkTXy</t>
-  </si>
-  <si>
     <t>prodUrEt</t>
   </si>
   <si>
     <t>prodDcZL</t>
+  </si>
+  <si>
+    <t>prodETnq</t>
+  </si>
+  <si>
+    <t>prodVPcM</t>
+  </si>
+  <si>
+    <t>prodkmtW</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>prodSVkX</t>
+  </si>
+  <si>
+    <t>prodzNbe</t>
+  </si>
+  <si>
+    <t>prodbYcp</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,14 +201,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="27">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +225,11 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
       </patternFill>
@@ -229,6 +240,26 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="9"/>
       </patternFill>
@@ -258,78 +289,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -484,46 +445,59 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <top style="thin"/>
@@ -550,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -582,17 +556,13 @@
     </xf>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="5" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="7" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -602,17 +572,15 @@
     <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="10" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="12" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="20" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="22" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="24" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="26" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="13" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="15" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -895,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,8 +950,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>39</v>
+      <c r="B2" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -996,32 +964,32 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P2" s="7"/>
-      <c r="Q2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="16"/>
+      <c r="Q2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>40</v>
+      <c r="B3" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -1068,8 +1036,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>41</v>
+      <c r="B4" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1108,14 +1076,14 @@
       <c r="Q4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="16"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>42</v>
+      <c r="B5" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1148,30 +1116,30 @@
         <v>10</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O5" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>16</v>
+      <c r="R5" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>43</v>
+      <c r="B6" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -1210,61 +1178,61 @@
       <c r="Q6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="16"/>
+      <c r="R6" s="13"/>
     </row>
     <row ht="15.75" r="7" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>1000</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <v>48</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>40</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>40</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="16">
         <v>200</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="16">
         <v>100</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="16">
         <v>20</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="16">
         <v>10</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="16">
         <v>30</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="16">
         <v>15</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="16">
         <v>40</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="16">
         <v>20</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="18" t="s">
         <v>16</v>
       </c>
     </row>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>Other</t>
   </si>
@@ -172,6 +172,54 @@
   </si>
   <si>
     <t>prodbYcp</t>
+  </si>
+  <si>
+    <t>produioY</t>
+  </si>
+  <si>
+    <t>prodYGdF</t>
+  </si>
+  <si>
+    <t>prodbiBw</t>
+  </si>
+  <si>
+    <t>prodapjC</t>
+  </si>
+  <si>
+    <t>prodnFrp</t>
+  </si>
+  <si>
+    <t>prodnFtg</t>
+  </si>
+  <si>
+    <t>prodbyAf</t>
+  </si>
+  <si>
+    <t>prodSrmR</t>
+  </si>
+  <si>
+    <t>prodaOBv</t>
+  </si>
+  <si>
+    <t>prodrvpf</t>
+  </si>
+  <si>
+    <t>prodGTak</t>
+  </si>
+  <si>
+    <t>prodWevr</t>
+  </si>
+  <si>
+    <t>prodNfmH</t>
+  </si>
+  <si>
+    <t>prodnalw</t>
+  </si>
+  <si>
+    <t>prodUNfl</t>
+  </si>
+  <si>
+    <t>prodDKtz</t>
   </si>
 </sst>
 </file>
@@ -202,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +337,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -520,11 +728,123 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -580,7 +900,23 @@
     <xf applyBorder="1" applyFill="1" borderId="15" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="17" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="19" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="53" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -950,8 +1286,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>48</v>
+      <c r="B2" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -988,8 +1324,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>39</v>
+      <c r="B3" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -1036,8 +1372,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>36</v>
+      <c r="B4" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1082,8 +1418,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>40</v>
+      <c r="B5" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1138,8 +1474,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>37</v>
+      <c r="B6" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -1184,8 +1520,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>38</v>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Other</t>
   </si>
@@ -220,6 +220,153 @@
   </si>
   <si>
     <t>prodDKtz</t>
+  </si>
+  <si>
+    <t>prodkoQM</t>
+  </si>
+  <si>
+    <t>prodzmVi</t>
+  </si>
+  <si>
+    <t>prodQlXj</t>
+  </si>
+  <si>
+    <t>prodLqqm</t>
+  </si>
+  <si>
+    <t>prodieaa</t>
+  </si>
+  <si>
+    <t>prodxspR</t>
+  </si>
+  <si>
+    <t>prodJzsl</t>
+  </si>
+  <si>
+    <t>prodxNWB</t>
+  </si>
+  <si>
+    <t>prodhPFV</t>
+  </si>
+  <si>
+    <t>prodfvMr</t>
+  </si>
+  <si>
+    <t>prodsxbh</t>
+  </si>
+  <si>
+    <t>prodXwMw</t>
+  </si>
+  <si>
+    <t>prodFxUa</t>
+  </si>
+  <si>
+    <t>prodTgeu</t>
+  </si>
+  <si>
+    <t>prodCZEM</t>
+  </si>
+  <si>
+    <t>prodebxX</t>
+  </si>
+  <si>
+    <t>prodnhfI</t>
+  </si>
+  <si>
+    <t>producCi</t>
+  </si>
+  <si>
+    <t>prodkBXu</t>
+  </si>
+  <si>
+    <t>prodogLx</t>
+  </si>
+  <si>
+    <t>prodqnZQ</t>
+  </si>
+  <si>
+    <t>prodePsw</t>
+  </si>
+  <si>
+    <t>prodfruG</t>
+  </si>
+  <si>
+    <t>prodBJlQ</t>
+  </si>
+  <si>
+    <t>prodFKcA</t>
+  </si>
+  <si>
+    <t>prodgKGo</t>
+  </si>
+  <si>
+    <t>prodVXVr</t>
+  </si>
+  <si>
+    <t>prodEWAp</t>
+  </si>
+  <si>
+    <t>prodOQeA</t>
+  </si>
+  <si>
+    <t>prodhhYb</t>
+  </si>
+  <si>
+    <t>prodkyMi</t>
+  </si>
+  <si>
+    <t>prodbLzN</t>
+  </si>
+  <si>
+    <t>prodQWZf</t>
+  </si>
+  <si>
+    <t>prodTGGf</t>
+  </si>
+  <si>
+    <t>prodhPRz</t>
+  </si>
+  <si>
+    <t>prodHBAA</t>
+  </si>
+  <si>
+    <t>prodWBqf</t>
+  </si>
+  <si>
+    <t>prodwHoO</t>
+  </si>
+  <si>
+    <t>prodNkpr</t>
+  </si>
+  <si>
+    <t>prodjhWy</t>
+  </si>
+  <si>
+    <t>prodOoOi</t>
+  </si>
+  <si>
+    <t>prodWIUR</t>
+  </si>
+  <si>
+    <t>prodkzGz</t>
+  </si>
+  <si>
+    <t>prodlwfu</t>
+  </si>
+  <si>
+    <t>prodJPLA</t>
+  </si>
+  <si>
+    <t>prodovQd</t>
+  </si>
+  <si>
+    <t>prodfjRn</t>
+  </si>
+  <si>
+    <t>prodOEaX</t>
+  </si>
+  <si>
+    <t>prodUlWZ</t>
   </si>
 </sst>
 </file>
@@ -250,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +644,498 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="152">
     <border>
       <left/>
       <right/>
@@ -840,11 +1477,354 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -916,7 +1896,56 @@
     <xf applyBorder="true" applyFill="true" borderId="47" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="49" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="51" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="53" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="151" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1286,8 +2315,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>64</v>
+      <c r="B2" s="90" t="s">
+        <v>111</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -1324,8 +2353,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>54</v>
+      <c r="B3" s="92" t="s">
+        <v>113</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -1372,8 +2401,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>50</v>
+      <c r="B4" s="80" t="s">
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1418,8 +2447,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>55</v>
+      <c r="B5" s="85" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1474,8 +2503,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>51</v>
+      <c r="B6" s="81" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -1520,8 +2549,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>52</v>
+      <c r="B7" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>Other</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>prodUlWZ</t>
+  </si>
+  <si>
+    <t>prodvBwQ</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="148">
+  <fills count="150">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,8 +1137,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="152">
+  <borders count="154">
     <border>
       <left/>
       <right/>
@@ -1820,11 +1833,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -1945,7 +1965,8 @@
     <xf applyBorder="true" applyFill="true" borderId="145" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="149" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="151" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="153" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2447,8 +2468,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>106</v>
+      <c r="B5" s="93" t="s">
+        <v>114</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>Other</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>prodvBwQ</t>
+  </si>
+  <si>
+    <t>prodhsZu</t>
+  </si>
+  <si>
+    <t>prodkVwD</t>
+  </si>
+  <si>
+    <t>prodZfzK</t>
+  </si>
+  <si>
+    <t>prodCRkV</t>
+  </si>
+  <si>
+    <t>prodIZAd</t>
+  </si>
+  <si>
+    <t>prodQjpg</t>
   </si>
 </sst>
 </file>
@@ -400,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="150">
+  <fills count="162">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,8 +1165,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="166">
     <border>
       <left/>
       <right/>
@@ -1840,11 +1918,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -1966,7 +2086,13 @@
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="149" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="151" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="153" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="165" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2336,8 +2462,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>111</v>
+      <c r="B2" s="99" t="s">
+        <v>120</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
   <si>
     <t>Other</t>
   </si>
@@ -388,6 +388,57 @@
   </si>
   <si>
     <t>prodQjpg</t>
+  </si>
+  <si>
+    <t>prodUBTd</t>
+  </si>
+  <si>
+    <t>prodRRAG</t>
+  </si>
+  <si>
+    <t>prodxPOB</t>
+  </si>
+  <si>
+    <t>prodAEhD</t>
+  </si>
+  <si>
+    <t>prodGTCg</t>
+  </si>
+  <si>
+    <t>prodbYUG</t>
+  </si>
+  <si>
+    <t>prodhjwH</t>
+  </si>
+  <si>
+    <t>prodrlpt</t>
+  </si>
+  <si>
+    <t>prodwTYJ</t>
+  </si>
+  <si>
+    <t>prodZEcH</t>
+  </si>
+  <si>
+    <t>prodPYZo</t>
+  </si>
+  <si>
+    <t>prodmFfn</t>
+  </si>
+  <si>
+    <t>prodpdMX</t>
+  </si>
+  <si>
+    <t>prodTvcZ</t>
+  </si>
+  <si>
+    <t>prodKSUp</t>
+  </si>
+  <si>
+    <t>prodQROt</t>
+  </si>
+  <si>
+    <t>prodtJdk</t>
   </si>
 </sst>
 </file>
@@ -418,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="162">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,8 +1276,178 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="166">
+  <borders count="200">
     <border>
       <left/>
       <right/>
@@ -1960,11 +2181,130 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -2092,7 +2432,24 @@
     <xf applyBorder="true" applyFill="true" borderId="159" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="161" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="163" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="165" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="199" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2462,8 +2819,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>120</v>
+      <c r="B2" s="116" t="s">
+        <v>137</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -2500,8 +2857,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>113</v>
+      <c r="B3" s="110" t="s">
+        <v>131</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -2594,8 +2951,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>114</v>
+      <c r="B5" s="111" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
   <si>
     <t>Other</t>
   </si>
@@ -439,6 +439,69 @@
   </si>
   <si>
     <t>prodtJdk</t>
+  </si>
+  <si>
+    <t>prodmVvl</t>
+  </si>
+  <si>
+    <t>prodACZF</t>
+  </si>
+  <si>
+    <t>prodAmgZ</t>
+  </si>
+  <si>
+    <t>prodUjkK</t>
+  </si>
+  <si>
+    <t>prodVNOG</t>
+  </si>
+  <si>
+    <t>prodhVev</t>
+  </si>
+  <si>
+    <t>prodanyt</t>
+  </si>
+  <si>
+    <t>prodWnOn</t>
+  </si>
+  <si>
+    <t>prodVhgq</t>
+  </si>
+  <si>
+    <t>prodrjlQ</t>
+  </si>
+  <si>
+    <t>proddASw</t>
+  </si>
+  <si>
+    <t>prodcMOg</t>
+  </si>
+  <si>
+    <t>prodRnfs</t>
+  </si>
+  <si>
+    <t>prodsBmK</t>
+  </si>
+  <si>
+    <t>prodeIkJ</t>
+  </si>
+  <si>
+    <t>prodzkVA</t>
+  </si>
+  <si>
+    <t>prodvGBc</t>
+  </si>
+  <si>
+    <t>prodlQsR</t>
+  </si>
+  <si>
+    <t>prodKIqg</t>
+  </si>
+  <si>
+    <t>prodZkoi</t>
+  </si>
+  <si>
+    <t>prodXkLk</t>
   </si>
 </sst>
 </file>
@@ -469,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="196">
+  <fills count="238">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1446,8 +1509,218 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="200">
+  <borders count="242">
     <border>
       <left/>
       <right/>
@@ -2300,11 +2573,158 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -2449,7 +2869,28 @@
     <xf applyBorder="true" applyFill="true" borderId="193" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="195" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="197" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="195" borderId="199" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="241" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2819,8 +3260,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="116" t="s">
-        <v>137</v>
+      <c r="B2" s="137" t="s">
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -2857,8 +3298,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>131</v>
+      <c r="B3" s="127" t="s">
+        <v>148</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -2905,8 +3346,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>101</v>
+      <c r="B4" s="118" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2951,8 +3392,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>132</v>
+      <c r="B5" s="128" t="s">
+        <v>149</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -3007,8 +3448,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>102</v>
+      <c r="B6" s="119" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -3053,8 +3494,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>103</v>
+      <c r="B7" s="120" t="s">
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
   <si>
     <t>Other</t>
   </si>
@@ -502,6 +502,54 @@
   </si>
   <si>
     <t>prodXkLk</t>
+  </si>
+  <si>
+    <t>prodYGsm</t>
+  </si>
+  <si>
+    <t>prodTtNd</t>
+  </si>
+  <si>
+    <t>prodJqto</t>
+  </si>
+  <si>
+    <t>prodiIfV</t>
+  </si>
+  <si>
+    <t>prodaHzR</t>
+  </si>
+  <si>
+    <t>prodDCEg</t>
+  </si>
+  <si>
+    <t>prodtccT</t>
+  </si>
+  <si>
+    <t>prodcsGM</t>
+  </si>
+  <si>
+    <t>prodbCIu</t>
+  </si>
+  <si>
+    <t>prodEbmc</t>
+  </si>
+  <si>
+    <t>prodRcbF</t>
+  </si>
+  <si>
+    <t>prodFUGg</t>
+  </si>
+  <si>
+    <t>prodKXdt</t>
+  </si>
+  <si>
+    <t>prodqAbD</t>
+  </si>
+  <si>
+    <t>prodZtWN</t>
+  </si>
+  <si>
+    <t>prodDQjY</t>
   </si>
 </sst>
 </file>
@@ -532,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="238">
+  <fills count="270">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,8 +1767,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="242">
+  <borders count="274">
     <border>
       <left/>
       <right/>
@@ -2720,11 +2928,123 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -2890,7 +3210,23 @@
     <xf applyBorder="true" applyFill="true" borderId="235" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="237" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="239" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="237" borderId="241" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="269" borderId="273" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3260,8 +3596,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="137" t="s">
-        <v>158</v>
+      <c r="B2" s="153" t="s">
+        <v>174</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -3298,8 +3634,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="127" t="s">
-        <v>148</v>
+      <c r="B3" s="148" t="s">
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -3346,8 +3682,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="118" t="s">
-        <v>139</v>
+      <c r="B4" s="144" t="s">
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -3392,8 +3728,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="128" t="s">
-        <v>149</v>
+      <c r="B5" s="149" t="s">
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -3448,8 +3784,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="119" t="s">
-        <v>140</v>
+      <c r="B6" s="145" t="s">
+        <v>166</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -3494,8 +3830,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="120" t="s">
-        <v>141</v>
+      <c r="B7" s="146" t="s">
+        <v>167</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
   <si>
     <t>Other</t>
   </si>
@@ -550,6 +550,24 @@
   </si>
   <si>
     <t>prodDQjY</t>
+  </si>
+  <si>
+    <t>prodJIYj</t>
+  </si>
+  <si>
+    <t>prodjvPU</t>
+  </si>
+  <si>
+    <t>prodXxmp</t>
+  </si>
+  <si>
+    <t>prodAJVt</t>
+  </si>
+  <si>
+    <t>prodHlJh</t>
+  </si>
+  <si>
+    <t>prodKYvQ</t>
   </si>
 </sst>
 </file>
@@ -580,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="270">
+  <fills count="282">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,8 +1945,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="274">
+  <borders count="286">
     <border>
       <left/>
       <right/>
@@ -3040,11 +3118,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -3226,7 +3346,13 @@
     <xf applyBorder="true" applyFill="true" borderId="267" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="269" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="271" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="269" borderId="273" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="281" borderId="285" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3596,8 +3722,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="153" t="s">
-        <v>174</v>
+      <c r="B2" s="159" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -3682,8 +3808,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="144" t="s">
-        <v>165</v>
+      <c r="B4" s="156" t="s">
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -3784,8 +3910,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="145" t="s">
-        <v>166</v>
+      <c r="B6" s="157" t="s">
+        <v>178</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -3830,8 +3956,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="146" t="s">
-        <v>167</v>
+      <c r="B7" s="158" t="s">
+        <v>179</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="219">
   <si>
     <t>Other</t>
   </si>
@@ -568,6 +568,120 @@
   </si>
   <si>
     <t>prodKYvQ</t>
+  </si>
+  <si>
+    <t>prodectE</t>
+  </si>
+  <si>
+    <t>prodMtZR</t>
+  </si>
+  <si>
+    <t>prodNXCU</t>
+  </si>
+  <si>
+    <t>prodrdtA</t>
+  </si>
+  <si>
+    <t>prodwbbC</t>
+  </si>
+  <si>
+    <t>prodCMmh</t>
+  </si>
+  <si>
+    <t>prodDrxX</t>
+  </si>
+  <si>
+    <t>prodDHDZ</t>
+  </si>
+  <si>
+    <t>prodRaTS</t>
+  </si>
+  <si>
+    <t>prodKHKq</t>
+  </si>
+  <si>
+    <t>prodoxvR</t>
+  </si>
+  <si>
+    <t>prodoICV</t>
+  </si>
+  <si>
+    <t>prodVBtr</t>
+  </si>
+  <si>
+    <t>prodPNFk</t>
+  </si>
+  <si>
+    <t>prodRQDI</t>
+  </si>
+  <si>
+    <t>prodGJMN</t>
+  </si>
+  <si>
+    <t>prodvksl</t>
+  </si>
+  <si>
+    <t>prodOrLN</t>
+  </si>
+  <si>
+    <t>prodNgyK</t>
+  </si>
+  <si>
+    <t>prodkADN</t>
+  </si>
+  <si>
+    <t>prodaFgt</t>
+  </si>
+  <si>
+    <t>prodryNU</t>
+  </si>
+  <si>
+    <t>prodKfpG</t>
+  </si>
+  <si>
+    <t>prodbDHm</t>
+  </si>
+  <si>
+    <t>prodfQKG</t>
+  </si>
+  <si>
+    <t>proddYjn</t>
+  </si>
+  <si>
+    <t>prodTyNl</t>
+  </si>
+  <si>
+    <t>prodspAR</t>
+  </si>
+  <si>
+    <t>prodPAXT</t>
+  </si>
+  <si>
+    <t>prodmiZd</t>
+  </si>
+  <si>
+    <t>prodIJIp</t>
+  </si>
+  <si>
+    <t>prodetSC</t>
+  </si>
+  <si>
+    <t>prodWyTq</t>
+  </si>
+  <si>
+    <t>prodSinN</t>
+  </si>
+  <si>
+    <t>prodtgCt</t>
+  </si>
+  <si>
+    <t>prodYICs</t>
+  </si>
+  <si>
+    <t>prodjIyh</t>
+  </si>
+  <si>
+    <t>prodtxga</t>
   </si>
 </sst>
 </file>
@@ -598,7 +712,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="282">
+  <fills count="358">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2005,8 +2119,388 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="286">
+  <borders count="362">
     <border>
       <left/>
       <right/>
@@ -3160,11 +3654,277 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -3352,7 +4112,45 @@
     <xf applyBorder="true" applyFill="true" borderId="279" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="281" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="283" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="281" borderId="285" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="301" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="303" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="305" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="307" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="309" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="311" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="313" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="315" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="317" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="319" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="321" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="323" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="343" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="347" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="351" fillId="347" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="349" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="355" fillId="351" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="353" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="359" fillId="355" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="357" borderId="361" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3722,8 +4520,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="159" t="s">
-        <v>180</v>
+      <c r="B2" s="197" t="s">
+        <v>218</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -3760,8 +4558,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="148" t="s">
-        <v>169</v>
+      <c r="B3" s="192" t="s">
+        <v>213</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -3808,8 +4606,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="156" t="s">
-        <v>177</v>
+      <c r="B4" s="161" t="s">
+        <v>182</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -3854,8 +4652,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="149" t="s">
-        <v>170</v>
+      <c r="B5" s="193" t="s">
+        <v>214</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -3910,8 +4708,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="157" t="s">
-        <v>178</v>
+      <c r="B6" s="162" t="s">
+        <v>183</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -3956,8 +4754,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="158" t="s">
-        <v>179</v>
+      <c r="B7" s="163" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>
